--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Vegfa-Flt1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Vegfa-Flt1.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.454188</v>
+        <v>3.951616</v>
       </c>
       <c r="H2">
-        <v>4.362564</v>
+        <v>11.854848</v>
       </c>
       <c r="I2">
-        <v>0.01142919054758268</v>
+        <v>0.02426123639137979</v>
       </c>
       <c r="J2">
-        <v>0.01142919054758268</v>
+        <v>0.0242612363913798</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>142.563596</v>
+        <v>112.871091</v>
       </c>
       <c r="N2">
-        <v>427.690788</v>
+        <v>338.613273</v>
       </c>
       <c r="O2">
-        <v>0.9315318106005318</v>
+        <v>0.9151808153836027</v>
       </c>
       <c r="P2">
-        <v>0.9315318106005319</v>
+        <v>0.9151808153836026</v>
       </c>
       <c r="Q2">
-        <v>207.314270540048</v>
+        <v>446.023209133056</v>
       </c>
       <c r="R2">
-        <v>1865.828434860432</v>
+        <v>4014.208882197504</v>
       </c>
       <c r="S2">
-        <v>0.01064665456448818</v>
+        <v>0.02220341810287729</v>
       </c>
       <c r="T2">
-        <v>0.01064665456448818</v>
+        <v>0.02220341810287729</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.454188</v>
+        <v>3.951616</v>
       </c>
       <c r="H3">
-        <v>4.362564</v>
+        <v>11.854848</v>
       </c>
       <c r="I3">
-        <v>0.01142919054758268</v>
+        <v>0.02426123639137979</v>
       </c>
       <c r="J3">
-        <v>0.01142919054758268</v>
+        <v>0.0242612363913798</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>1.350685</v>
       </c>
       <c r="O3">
-        <v>0.002941859116219682</v>
+        <v>0.003650539119966515</v>
       </c>
       <c r="P3">
-        <v>0.002941859116219682</v>
+        <v>0.003650539119966515</v>
       </c>
       <c r="Q3">
-        <v>0.6547166395933333</v>
+        <v>1.779129485653333</v>
       </c>
       <c r="R3">
-        <v>5.89244975634</v>
+        <v>16.01216537088</v>
       </c>
       <c r="S3">
-        <v>3.362306840341793E-05</v>
+        <v>8.856659254548717E-05</v>
       </c>
       <c r="T3">
-        <v>3.362306840341793E-05</v>
+        <v>8.856659254548718E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.454188</v>
+        <v>3.951616</v>
       </c>
       <c r="H4">
-        <v>4.362564</v>
+        <v>11.854848</v>
       </c>
       <c r="I4">
-        <v>0.01142919054758268</v>
+        <v>0.02426123639137979</v>
       </c>
       <c r="J4">
-        <v>0.01142919054758268</v>
+        <v>0.0242612363913798</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.398212333333333</v>
+        <v>2.188423666666667</v>
       </c>
       <c r="N4">
-        <v>4.194637</v>
+        <v>6.565270999999999</v>
       </c>
       <c r="O4">
-        <v>0.009136128037020016</v>
+        <v>0.01774416582599324</v>
       </c>
       <c r="P4">
-        <v>0.009136128037020014</v>
+        <v>0.01774416582599324</v>
       </c>
       <c r="Q4">
-        <v>2.033263596585333</v>
+        <v>8.647809975978666</v>
       </c>
       <c r="R4">
-        <v>18.299372369268</v>
+        <v>77.830289783808</v>
       </c>
       <c r="S4">
-        <v>0.0001044185482022143</v>
+        <v>0.0004304954016722649</v>
       </c>
       <c r="T4">
-        <v>0.0001044185482022143</v>
+        <v>0.000430495401672265</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.454188</v>
+        <v>3.951616</v>
       </c>
       <c r="H5">
-        <v>4.362564</v>
+        <v>11.854848</v>
       </c>
       <c r="I5">
-        <v>0.01142919054758268</v>
+        <v>0.02426123639137979</v>
       </c>
       <c r="J5">
-        <v>0.01142919054758268</v>
+        <v>0.0242612363913798</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.274860333333333</v>
+        <v>2.759329666666667</v>
       </c>
       <c r="N5">
-        <v>6.824581</v>
+        <v>8.277989000000002</v>
       </c>
       <c r="O5">
-        <v>0.01486427688856368</v>
+        <v>0.02237318299910971</v>
       </c>
       <c r="P5">
-        <v>0.01486427688856368</v>
+        <v>0.02237318299910971</v>
       </c>
       <c r="Q5">
-        <v>3.308074598409333</v>
+        <v>10.90381126007467</v>
       </c>
       <c r="R5">
-        <v>29.772671385684</v>
+        <v>98.13430134067202</v>
       </c>
       <c r="S5">
-        <v>0.0001698866529114237</v>
+        <v>0.0005428010815690002</v>
       </c>
       <c r="T5">
-        <v>0.0001698866529114237</v>
+        <v>0.0005428010815690002</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.454188</v>
+        <v>3.951616</v>
       </c>
       <c r="H6">
-        <v>4.362564</v>
+        <v>11.854848</v>
       </c>
       <c r="I6">
-        <v>0.01142919054758268</v>
+        <v>0.02426123639137979</v>
       </c>
       <c r="J6">
-        <v>0.01142919054758268</v>
+        <v>0.0242612363913798</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.688331</v>
+        <v>3.993455</v>
       </c>
       <c r="N6">
-        <v>11.064993</v>
+        <v>11.980365</v>
       </c>
       <c r="O6">
-        <v>0.02410010515253888</v>
+        <v>0.0323797118528581</v>
       </c>
       <c r="P6">
-        <v>0.02410010515253888</v>
+        <v>0.0323797118528581</v>
       </c>
       <c r="Q6">
-        <v>5.363526680228</v>
+        <v>15.78060067328</v>
       </c>
       <c r="R6">
-        <v>48.271740122052</v>
+        <v>142.02540605952</v>
       </c>
       <c r="S6">
-        <v>0.000275444694005146</v>
+        <v>0.0007855718435469524</v>
       </c>
       <c r="T6">
-        <v>0.000275444694005146</v>
+        <v>0.0007855718435469525</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.454188</v>
+        <v>3.951616</v>
       </c>
       <c r="H7">
-        <v>4.362564</v>
+        <v>11.854848</v>
       </c>
       <c r="I7">
-        <v>0.01142919054758268</v>
+        <v>0.02426123639137979</v>
       </c>
       <c r="J7">
-        <v>0.01142919054758268</v>
+        <v>0.0242612363913798</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.666884333333333</v>
+        <v>1.069484</v>
       </c>
       <c r="N7">
-        <v>8.000653</v>
+        <v>3.208452</v>
       </c>
       <c r="O7">
-        <v>0.01742582020512581</v>
+        <v>0.008671584818469745</v>
       </c>
       <c r="P7">
-        <v>0.0174258202051258</v>
+        <v>0.008671584818469745</v>
       </c>
       <c r="Q7">
-        <v>3.878151194921334</v>
+        <v>4.226190086144</v>
       </c>
       <c r="R7">
-        <v>34.903360754292</v>
+        <v>38.035710775296</v>
       </c>
       <c r="S7">
-        <v>0.0001991630195722992</v>
+        <v>0.0002103833691687947</v>
       </c>
       <c r="T7">
-        <v>0.0001991630195722991</v>
+        <v>0.0002103833691687947</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>68.39354999999999</v>
       </c>
       <c r="I8">
-        <v>0.1791797014727173</v>
+        <v>0.1399690729223735</v>
       </c>
       <c r="J8">
-        <v>0.1791797014727173</v>
+        <v>0.1399690729223735</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>142.563596</v>
+        <v>112.871091</v>
       </c>
       <c r="N8">
-        <v>427.690788</v>
+        <v>338.613273</v>
       </c>
       <c r="O8">
-        <v>0.9315318106005318</v>
+        <v>0.9151808153836027</v>
       </c>
       <c r="P8">
-        <v>0.9315318106005319</v>
+        <v>0.9151808153836026</v>
       </c>
       <c r="Q8">
-        <v>3250.143477068599</v>
+        <v>2573.218201954349</v>
       </c>
       <c r="R8">
-        <v>29251.2912936174</v>
+        <v>23158.96381758915</v>
       </c>
       <c r="S8">
-        <v>0.1669115917357431</v>
+        <v>0.1280970102855847</v>
       </c>
       <c r="T8">
-        <v>0.1669115917357431</v>
+        <v>0.1280970102855847</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>68.39354999999999</v>
       </c>
       <c r="I9">
-        <v>0.1791797014727173</v>
+        <v>0.1399690729223735</v>
       </c>
       <c r="J9">
-        <v>0.1791797014727173</v>
+        <v>0.1399690729223735</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>1.350685</v>
       </c>
       <c r="O9">
-        <v>0.002941859116219682</v>
+        <v>0.003650539119966515</v>
       </c>
       <c r="P9">
-        <v>0.002941859116219682</v>
+        <v>0.003650539119966515</v>
       </c>
       <c r="Q9">
         <v>10.26423800908333</v>
@@ -1013,10 +1013,10 @@
         <v>92.37814208174998</v>
       </c>
       <c r="S9">
-        <v>0.0005271214382190345</v>
+        <v>0.0005109625762885701</v>
       </c>
       <c r="T9">
-        <v>0.0005271214382190345</v>
+        <v>0.0005109625762885703</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>68.39354999999999</v>
       </c>
       <c r="I10">
-        <v>0.1791797014727173</v>
+        <v>0.1399690729223735</v>
       </c>
       <c r="J10">
-        <v>0.1791797014727173</v>
+        <v>0.1399690729223735</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.398212333333333</v>
+        <v>2.188423666666667</v>
       </c>
       <c r="N10">
-        <v>4.194637</v>
+        <v>6.565270999999999</v>
       </c>
       <c r="O10">
-        <v>0.009136128037020016</v>
+        <v>0.01774416582599324</v>
       </c>
       <c r="P10">
-        <v>0.009136128037020014</v>
+        <v>0.01774416582599324</v>
       </c>
       <c r="Q10">
-        <v>31.87623504348333</v>
+        <v>49.89135448911666</v>
       </c>
       <c r="R10">
-        <v>286.88611539135</v>
+        <v>449.0221904020499</v>
       </c>
       <c r="S10">
-        <v>0.001637008694289769</v>
+        <v>0.002483634440445135</v>
       </c>
       <c r="T10">
-        <v>0.001637008694289769</v>
+        <v>0.002483634440445135</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>68.39354999999999</v>
       </c>
       <c r="I11">
-        <v>0.1791797014727173</v>
+        <v>0.1399690729223735</v>
       </c>
       <c r="J11">
-        <v>0.1791797014727173</v>
+        <v>0.1399690729223735</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.274860333333333</v>
+        <v>2.759329666666667</v>
       </c>
       <c r="N11">
-        <v>6.824581</v>
+        <v>8.277989000000002</v>
       </c>
       <c r="O11">
-        <v>0.01486427688856368</v>
+        <v>0.02237318299910971</v>
       </c>
       <c r="P11">
-        <v>0.01486427688856368</v>
+        <v>0.02237318299910971</v>
       </c>
       <c r="Q11">
-        <v>51.86192465028333</v>
+        <v>62.90678384121667</v>
       </c>
       <c r="R11">
-        <v>466.75732185255</v>
+        <v>566.16105457095</v>
       </c>
       <c r="S11">
-        <v>0.002663376695500651</v>
+        <v>0.003131553682707993</v>
       </c>
       <c r="T11">
-        <v>0.002663376695500651</v>
+        <v>0.003131553682707993</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>68.39354999999999</v>
       </c>
       <c r="I12">
-        <v>0.1791797014727173</v>
+        <v>0.1399690729223735</v>
       </c>
       <c r="J12">
-        <v>0.1791797014727173</v>
+        <v>0.1399690729223735</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.688331</v>
+        <v>3.993455</v>
       </c>
       <c r="N12">
-        <v>11.064993</v>
+        <v>11.980365</v>
       </c>
       <c r="O12">
-        <v>0.02410010515253888</v>
+        <v>0.0323797118528581</v>
       </c>
       <c r="P12">
-        <v>0.02410010515253888</v>
+        <v>0.0323797118528581</v>
       </c>
       <c r="Q12">
-        <v>84.08601688834999</v>
+        <v>91.04218807174998</v>
       </c>
       <c r="R12">
-        <v>756.77415199515</v>
+        <v>819.3796926457499</v>
       </c>
       <c r="S12">
-        <v>0.004318249646693011</v>
+        <v>0.004532158249538135</v>
       </c>
       <c r="T12">
-        <v>0.004318249646693011</v>
+        <v>0.004532158249538135</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>68.39354999999999</v>
       </c>
       <c r="I13">
-        <v>0.1791797014727173</v>
+        <v>0.1399690729223735</v>
       </c>
       <c r="J13">
-        <v>0.1791797014727173</v>
+        <v>0.1399690729223735</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.666884333333333</v>
+        <v>1.069484</v>
       </c>
       <c r="N13">
-        <v>8.000653</v>
+        <v>3.208452</v>
       </c>
       <c r="O13">
-        <v>0.01742582020512581</v>
+        <v>0.008671584818469745</v>
       </c>
       <c r="P13">
-        <v>0.0174258202051258</v>
+        <v>0.008671584818469745</v>
       </c>
       <c r="Q13">
-        <v>60.79922899868333</v>
+        <v>24.3819358094</v>
       </c>
       <c r="R13">
-        <v>547.1930609881499</v>
+        <v>219.4374222846</v>
       </c>
       <c r="S13">
-        <v>0.003122353262271687</v>
+        <v>0.001213753687808938</v>
       </c>
       <c r="T13">
-        <v>0.003122353262271687</v>
+        <v>0.001213753687808938</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>11.79385566666667</v>
+        <v>23.46160133333333</v>
       </c>
       <c r="H14">
-        <v>35.381567</v>
+        <v>70.384804</v>
       </c>
       <c r="I14">
-        <v>0.09269380830059187</v>
+        <v>0.1440442229377326</v>
       </c>
       <c r="J14">
-        <v>0.09269380830059187</v>
+        <v>0.1440442229377327</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>142.563596</v>
+        <v>112.871091</v>
       </c>
       <c r="N14">
-        <v>427.690788</v>
+        <v>338.613273</v>
       </c>
       <c r="O14">
-        <v>0.9315318106005318</v>
+        <v>0.9151808153836027</v>
       </c>
       <c r="P14">
-        <v>0.9315318106005319</v>
+        <v>0.9151808153836026</v>
       </c>
       <c r="Q14">
-        <v>1681.374474544977</v>
+        <v>2648.136539100388</v>
       </c>
       <c r="R14">
-        <v>15132.37027090479</v>
+        <v>23833.22885190349</v>
       </c>
       <c r="S14">
-        <v>0.08634723107770895</v>
+        <v>0.1318265093994516</v>
       </c>
       <c r="T14">
-        <v>0.08634723107770896</v>
+        <v>0.1318265093994516</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>11.79385566666667</v>
+        <v>23.46160133333333</v>
       </c>
       <c r="H15">
-        <v>35.381567</v>
+        <v>70.384804</v>
       </c>
       <c r="I15">
-        <v>0.09269380830059187</v>
+        <v>0.1440442229377326</v>
       </c>
       <c r="J15">
-        <v>0.09269380830059187</v>
+        <v>0.1440442229377327</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>1.350685</v>
       </c>
       <c r="O15">
-        <v>0.002941859116219682</v>
+        <v>0.003650539119966515</v>
       </c>
       <c r="P15">
-        <v>0.002941859116219682</v>
+        <v>0.003650539119966515</v>
       </c>
       <c r="Q15">
-        <v>5.309927980377221</v>
+        <v>10.56307766563778</v>
       </c>
       <c r="R15">
-        <v>47.78935182339499</v>
+        <v>95.06769899074</v>
       </c>
       <c r="S15">
-        <v>0.0002726921249662159</v>
+        <v>0.000525839070839371</v>
       </c>
       <c r="T15">
-        <v>0.0002726921249662158</v>
+        <v>0.0005258390708393711</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>11.79385566666667</v>
+        <v>23.46160133333333</v>
       </c>
       <c r="H16">
-        <v>35.381567</v>
+        <v>70.384804</v>
       </c>
       <c r="I16">
-        <v>0.09269380830059187</v>
+        <v>0.1440442229377326</v>
       </c>
       <c r="J16">
-        <v>0.09269380830059187</v>
+        <v>0.1440442229377327</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.398212333333333</v>
+        <v>2.188423666666667</v>
       </c>
       <c r="N16">
-        <v>4.194637</v>
+        <v>6.565270999999999</v>
       </c>
       <c r="O16">
-        <v>0.009136128037020016</v>
+        <v>0.01774416582599324</v>
       </c>
       <c r="P16">
-        <v>0.009136128037020014</v>
+        <v>0.01774416582599324</v>
       </c>
       <c r="Q16">
-        <v>16.49031445068655</v>
+        <v>51.34392361576489</v>
       </c>
       <c r="R16">
-        <v>148.412830056179</v>
+        <v>462.095312541884</v>
       </c>
       <c r="S16">
-        <v>0.0008468625008731961</v>
+        <v>0.002555944578083467</v>
       </c>
       <c r="T16">
-        <v>0.0008468625008731959</v>
+        <v>0.002555944578083468</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>11.79385566666667</v>
+        <v>23.46160133333333</v>
       </c>
       <c r="H17">
-        <v>35.381567</v>
+        <v>70.384804</v>
       </c>
       <c r="I17">
-        <v>0.09269380830059187</v>
+        <v>0.1440442229377326</v>
       </c>
       <c r="J17">
-        <v>0.09269380830059187</v>
+        <v>0.1440442229377327</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.274860333333333</v>
+        <v>2.759329666666667</v>
       </c>
       <c r="N17">
-        <v>6.824581</v>
+        <v>8.277989000000002</v>
       </c>
       <c r="O17">
-        <v>0.01486427688856368</v>
+        <v>0.02237318299910971</v>
       </c>
       <c r="P17">
-        <v>0.01486427688856368</v>
+        <v>0.02237318299910971</v>
       </c>
       <c r="Q17">
-        <v>26.82937443315855</v>
+        <v>64.73829258657291</v>
       </c>
       <c r="R17">
-        <v>241.464369898427</v>
+        <v>582.6446332791561</v>
       </c>
       <c r="S17">
-        <v>0.00137782643243544</v>
+        <v>0.00322272775975045</v>
       </c>
       <c r="T17">
-        <v>0.00137782643243544</v>
+        <v>0.00322272775975045</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>11.79385566666667</v>
+        <v>23.46160133333333</v>
       </c>
       <c r="H18">
-        <v>35.381567</v>
+        <v>70.384804</v>
       </c>
       <c r="I18">
-        <v>0.09269380830059187</v>
+        <v>0.1440442229377326</v>
       </c>
       <c r="J18">
-        <v>0.09269380830059187</v>
+        <v>0.1440442229377327</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>3.688331</v>
+        <v>3.993455</v>
       </c>
       <c r="N18">
-        <v>11.064993</v>
+        <v>11.980365</v>
       </c>
       <c r="O18">
-        <v>0.02410010515253888</v>
+        <v>0.0323797118528581</v>
       </c>
       <c r="P18">
-        <v>0.02410010515253888</v>
+        <v>0.0323797118528581</v>
       </c>
       <c r="Q18">
-        <v>43.49964346489233</v>
+        <v>93.69284915260666</v>
       </c>
       <c r="R18">
-        <v>391.496791184031</v>
+        <v>843.23564237346</v>
       </c>
       <c r="S18">
-        <v>0.002233930527033545</v>
+        <v>0.004664110432792636</v>
       </c>
       <c r="T18">
-        <v>0.002233930527033545</v>
+        <v>0.004664110432792637</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>11.79385566666667</v>
+        <v>23.46160133333333</v>
       </c>
       <c r="H19">
-        <v>35.381567</v>
+        <v>70.384804</v>
       </c>
       <c r="I19">
-        <v>0.09269380830059187</v>
+        <v>0.1440442229377326</v>
       </c>
       <c r="J19">
-        <v>0.09269380830059187</v>
+        <v>0.1440442229377327</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>2.666884333333333</v>
+        <v>1.069484</v>
       </c>
       <c r="N19">
-        <v>8.000653</v>
+        <v>3.208452</v>
       </c>
       <c r="O19">
-        <v>0.01742582020512581</v>
+        <v>0.008671584818469745</v>
       </c>
       <c r="P19">
-        <v>0.0174258202051258</v>
+        <v>0.008671584818469745</v>
       </c>
       <c r="Q19">
-        <v>31.45284890702789</v>
+        <v>25.09180724037867</v>
       </c>
       <c r="R19">
-        <v>283.075640163251</v>
+        <v>225.826265163408</v>
       </c>
       <c r="S19">
-        <v>0.001615265637574512</v>
+        <v>0.001249091696815114</v>
       </c>
       <c r="T19">
-        <v>0.001615265637574512</v>
+        <v>0.001249091696815114</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>8.019912</v>
+        <v>13.24792266666667</v>
       </c>
       <c r="H20">
-        <v>24.059736</v>
+        <v>39.743768</v>
       </c>
       <c r="I20">
-        <v>0.06303249815212676</v>
+        <v>0.08133659331036178</v>
       </c>
       <c r="J20">
-        <v>0.06303249815212676</v>
+        <v>0.08133659331036179</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>142.563596</v>
+        <v>112.871091</v>
       </c>
       <c r="N20">
-        <v>427.690788</v>
+        <v>338.613273</v>
       </c>
       <c r="O20">
-        <v>0.9315318106005318</v>
+        <v>0.9151808153836027</v>
       </c>
       <c r="P20">
-        <v>0.9315318106005319</v>
+        <v>0.9151808153836026</v>
       </c>
       <c r="Q20">
-        <v>1143.347494323552</v>
+        <v>1495.307484870296</v>
       </c>
       <c r="R20">
-        <v>10290.12744891197</v>
+        <v>13457.76736383267</v>
       </c>
       <c r="S20">
-        <v>0.05871677713032532</v>
+        <v>0.07443768978630137</v>
       </c>
       <c r="T20">
-        <v>0.05871677713032532</v>
+        <v>0.07443768978630139</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>8.019912</v>
+        <v>13.24792266666667</v>
       </c>
       <c r="H21">
-        <v>24.059736</v>
+        <v>39.743768</v>
       </c>
       <c r="I21">
-        <v>0.06303249815212676</v>
+        <v>0.08133659331036178</v>
       </c>
       <c r="J21">
-        <v>0.06303249815212676</v>
+        <v>0.08133659331036179</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>1.350685</v>
       </c>
       <c r="O21">
-        <v>0.002941859116219682</v>
+        <v>0.003650539119966515</v>
       </c>
       <c r="P21">
-        <v>0.002941859116219682</v>
+        <v>0.003650539119966515</v>
       </c>
       <c r="Q21">
-        <v>3.61079161324</v>
+        <v>5.964590142342222</v>
       </c>
       <c r="R21">
-        <v>32.49712451916</v>
+        <v>53.68131128108</v>
       </c>
       <c r="S21">
-        <v>0.0001854327293069344</v>
+        <v>0.0002969224157642824</v>
       </c>
       <c r="T21">
-        <v>0.0001854327293069344</v>
+        <v>0.0002969224157642825</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>8.019912</v>
+        <v>13.24792266666667</v>
       </c>
       <c r="H22">
-        <v>24.059736</v>
+        <v>39.743768</v>
       </c>
       <c r="I22">
-        <v>0.06303249815212676</v>
+        <v>0.08133659331036178</v>
       </c>
       <c r="J22">
-        <v>0.06303249815212676</v>
+        <v>0.08133659331036179</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>1.398212333333333</v>
+        <v>2.188423666666667</v>
       </c>
       <c r="N22">
-        <v>4.194637</v>
+        <v>6.565270999999999</v>
       </c>
       <c r="O22">
-        <v>0.009136128037020016</v>
+        <v>0.01774416582599324</v>
       </c>
       <c r="P22">
-        <v>0.009136128037020014</v>
+        <v>0.01774416582599324</v>
       </c>
       <c r="Q22">
-        <v>11.213539870648</v>
+        <v>28.99206749790311</v>
       </c>
       <c r="R22">
-        <v>100.921858835832</v>
+        <v>260.928607481128</v>
       </c>
       <c r="S22">
-        <v>0.0005758729736110576</v>
+        <v>0.001443249999420432</v>
       </c>
       <c r="T22">
-        <v>0.0005758729736110575</v>
+        <v>0.001443249999420432</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>8.019912</v>
+        <v>13.24792266666667</v>
       </c>
       <c r="H23">
-        <v>24.059736</v>
+        <v>39.743768</v>
       </c>
       <c r="I23">
-        <v>0.06303249815212676</v>
+        <v>0.08133659331036178</v>
       </c>
       <c r="J23">
-        <v>0.06303249815212676</v>
+        <v>0.08133659331036179</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>2.274860333333333</v>
+        <v>2.759329666666667</v>
       </c>
       <c r="N23">
-        <v>6.824581</v>
+        <v>8.277989000000002</v>
       </c>
       <c r="O23">
-        <v>0.01486427688856368</v>
+        <v>0.02237318299910971</v>
       </c>
       <c r="P23">
-        <v>0.01486427688856368</v>
+        <v>0.02237318299910971</v>
       </c>
       <c r="Q23">
-        <v>18.244179685624</v>
+        <v>36.55538603583912</v>
       </c>
       <c r="R23">
-        <v>164.197617170616</v>
+        <v>328.9984743225521</v>
       </c>
       <c r="S23">
-        <v>0.0009369325055110907</v>
+        <v>0.001819758486656887</v>
       </c>
       <c r="T23">
-        <v>0.0009369325055110907</v>
+        <v>0.001819758486656887</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>8.019912</v>
+        <v>13.24792266666667</v>
       </c>
       <c r="H24">
-        <v>24.059736</v>
+        <v>39.743768</v>
       </c>
       <c r="I24">
-        <v>0.06303249815212676</v>
+        <v>0.08133659331036178</v>
       </c>
       <c r="J24">
-        <v>0.06303249815212676</v>
+        <v>0.08133659331036179</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>3.688331</v>
+        <v>3.993455</v>
       </c>
       <c r="N24">
-        <v>11.064993</v>
+        <v>11.980365</v>
       </c>
       <c r="O24">
-        <v>0.02410010515253888</v>
+        <v>0.0323797118528581</v>
       </c>
       <c r="P24">
-        <v>0.02410010515253888</v>
+        <v>0.0323797118528581</v>
       </c>
       <c r="Q24">
-        <v>29.580090046872</v>
+        <v>52.90498301281333</v>
       </c>
       <c r="R24">
-        <v>266.2208104218481</v>
+        <v>476.14484711532</v>
       </c>
       <c r="S24">
-        <v>0.001519089833493468</v>
+        <v>0.00263365545448262</v>
       </c>
       <c r="T24">
-        <v>0.001519089833493468</v>
+        <v>0.00263365545448262</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>8.019912</v>
+        <v>13.24792266666667</v>
       </c>
       <c r="H25">
-        <v>24.059736</v>
+        <v>39.743768</v>
       </c>
       <c r="I25">
-        <v>0.06303249815212676</v>
+        <v>0.08133659331036178</v>
       </c>
       <c r="J25">
-        <v>0.06303249815212676</v>
+        <v>0.08133659331036179</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>2.666884333333333</v>
+        <v>1.069484</v>
       </c>
       <c r="N25">
-        <v>8.000653</v>
+        <v>3.208452</v>
       </c>
       <c r="O25">
-        <v>0.01742582020512581</v>
+        <v>0.008671584818469745</v>
       </c>
       <c r="P25">
-        <v>0.0174258202051258</v>
+        <v>0.008671584818469745</v>
       </c>
       <c r="Q25">
-        <v>21.388177667512</v>
+        <v>14.16844132523734</v>
       </c>
       <c r="R25">
-        <v>192.493599007608</v>
+        <v>127.515971927136</v>
       </c>
       <c r="S25">
-        <v>0.001098392979878886</v>
+        <v>0.000705317167736181</v>
       </c>
       <c r="T25">
-        <v>0.001098392979878885</v>
+        <v>0.0007053171677361811</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>71.30949033333333</v>
+        <v>83.17228299999999</v>
       </c>
       <c r="H26">
-        <v>213.928471</v>
+        <v>249.516849</v>
       </c>
       <c r="I26">
-        <v>0.5604569373909507</v>
+        <v>0.5106423344458921</v>
       </c>
       <c r="J26">
-        <v>0.5604569373909508</v>
+        <v>0.5106423344458922</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>142.563596</v>
+        <v>112.871091</v>
       </c>
       <c r="N26">
-        <v>427.690788</v>
+        <v>338.613273</v>
       </c>
       <c r="O26">
-        <v>0.9315318106005318</v>
+        <v>0.9151808153836027</v>
       </c>
       <c r="P26">
-        <v>0.9315318106005319</v>
+        <v>0.9151808153836026</v>
       </c>
       <c r="Q26">
-        <v>10166.13737084724</v>
+        <v>9387.746323170752</v>
       </c>
       <c r="R26">
-        <v>91495.23633762515</v>
+        <v>84489.71690853676</v>
       </c>
       <c r="S26">
-        <v>0.5220834656514212</v>
+        <v>0.4673300680075779</v>
       </c>
       <c r="T26">
-        <v>0.5220834656514214</v>
+        <v>0.467330068007578</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>71.30949033333333</v>
+        <v>83.17228299999999</v>
       </c>
       <c r="H27">
-        <v>213.928471</v>
+        <v>249.516849</v>
       </c>
       <c r="I27">
-        <v>0.5604569373909507</v>
+        <v>0.5106423344458921</v>
       </c>
       <c r="J27">
-        <v>0.5604569373909508</v>
+        <v>0.5106423344458922</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>1.350685</v>
       </c>
       <c r="O27">
-        <v>0.002941859116219682</v>
+        <v>0.003650539119966515</v>
       </c>
       <c r="P27">
-        <v>0.002941859116219682</v>
+        <v>0.003650539119966515</v>
       </c>
       <c r="Q27">
-        <v>32.1055529836261</v>
+        <v>37.44651835461833</v>
       </c>
       <c r="R27">
-        <v>288.949976852635</v>
+        <v>337.0186651915649</v>
       </c>
       <c r="S27">
-        <v>0.001648785350512132</v>
+        <v>0.001864119818205754</v>
       </c>
       <c r="T27">
-        <v>0.001648785350512132</v>
+        <v>0.001864119818205754</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>71.30949033333333</v>
+        <v>83.17228299999999</v>
       </c>
       <c r="H28">
-        <v>213.928471</v>
+        <v>249.516849</v>
       </c>
       <c r="I28">
-        <v>0.5604569373909507</v>
+        <v>0.5106423344458921</v>
       </c>
       <c r="J28">
-        <v>0.5604569373909508</v>
+        <v>0.5106423344458922</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>1.398212333333333</v>
+        <v>2.188423666666667</v>
       </c>
       <c r="N28">
-        <v>4.194637</v>
+        <v>6.565270999999999</v>
       </c>
       <c r="O28">
-        <v>0.009136128037020016</v>
+        <v>0.01774416582599324</v>
       </c>
       <c r="P28">
-        <v>0.009136128037020014</v>
+        <v>0.01774416582599324</v>
       </c>
       <c r="Q28">
-        <v>99.70580886778077</v>
+        <v>182.0161925278976</v>
       </c>
       <c r="R28">
-        <v>897.3522798100271</v>
+        <v>1638.145732751079</v>
       </c>
       <c r="S28">
-        <v>0.005120406339239836</v>
+        <v>0.009060922260180211</v>
       </c>
       <c r="T28">
-        <v>0.005120406339239837</v>
+        <v>0.009060922260180213</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>71.30949033333333</v>
+        <v>83.17228299999999</v>
       </c>
       <c r="H29">
-        <v>213.928471</v>
+        <v>249.516849</v>
       </c>
       <c r="I29">
-        <v>0.5604569373909507</v>
+        <v>0.5106423344458921</v>
       </c>
       <c r="J29">
-        <v>0.5604569373909508</v>
+        <v>0.5106423344458922</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>2.274860333333333</v>
+        <v>2.759329666666667</v>
       </c>
       <c r="N29">
-        <v>6.824581</v>
+        <v>8.277989000000002</v>
       </c>
       <c r="O29">
-        <v>0.01486427688856368</v>
+        <v>0.02237318299910971</v>
       </c>
       <c r="P29">
-        <v>0.01486427688856368</v>
+        <v>0.02237318299910971</v>
       </c>
       <c r="Q29">
-        <v>162.2191309495168</v>
+        <v>229.4997479262957</v>
       </c>
       <c r="R29">
-        <v>1459.972178545651</v>
+        <v>2065.497731336661</v>
       </c>
       <c r="S29">
-        <v>0.00833078710149549</v>
+        <v>0.01142469439565053</v>
       </c>
       <c r="T29">
-        <v>0.008330787101495492</v>
+        <v>0.01142469439565053</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>71.30949033333333</v>
+        <v>83.17228299999999</v>
       </c>
       <c r="H30">
-        <v>213.928471</v>
+        <v>249.516849</v>
       </c>
       <c r="I30">
-        <v>0.5604569373909507</v>
+        <v>0.5106423344458921</v>
       </c>
       <c r="J30">
-        <v>0.5604569373909508</v>
+        <v>0.5106423344458922</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>3.688331</v>
+        <v>3.993455</v>
       </c>
       <c r="N30">
-        <v>11.064993</v>
+        <v>11.980365</v>
       </c>
       <c r="O30">
-        <v>0.02410010515253888</v>
+        <v>0.0323797118528581</v>
       </c>
       <c r="P30">
-        <v>0.02410010515253888</v>
+        <v>0.0323797118528581</v>
       </c>
       <c r="Q30">
-        <v>263.0130037906337</v>
+        <v>332.144769407765</v>
       </c>
       <c r="R30">
-        <v>2367.117034115703</v>
+        <v>2989.302924669884</v>
       </c>
       <c r="S30">
-        <v>0.01350707112459181</v>
+        <v>0.01653445164922878</v>
       </c>
       <c r="T30">
-        <v>0.01350707112459181</v>
+        <v>0.01653445164922878</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>71.30949033333333</v>
+        <v>83.17228299999999</v>
       </c>
       <c r="H31">
-        <v>213.928471</v>
+        <v>249.516849</v>
       </c>
       <c r="I31">
-        <v>0.5604569373909507</v>
+        <v>0.5106423344458921</v>
       </c>
       <c r="J31">
-        <v>0.5604569373909508</v>
+        <v>0.5106423344458922</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>2.666884333333333</v>
+        <v>1.069484</v>
       </c>
       <c r="N31">
-        <v>8.000653</v>
+        <v>3.208452</v>
       </c>
       <c r="O31">
-        <v>0.01742582020512581</v>
+        <v>0.008671584818469745</v>
       </c>
       <c r="P31">
-        <v>0.0174258202051258</v>
+        <v>0.008671584818469745</v>
       </c>
       <c r="Q31">
-        <v>190.1741625879514</v>
+        <v>88.951425911972</v>
       </c>
       <c r="R31">
-        <v>1711.567463291563</v>
+        <v>800.562833207748</v>
       </c>
       <c r="S31">
-        <v>0.009766421823690159</v>
+        <v>0.004428078315048948</v>
       </c>
       <c r="T31">
-        <v>0.009766421823690159</v>
+        <v>0.004428078315048949</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>11.85926133333333</v>
+        <v>16.24649366666667</v>
       </c>
       <c r="H32">
-        <v>35.57778399999999</v>
+        <v>48.739481</v>
       </c>
       <c r="I32">
-        <v>0.09320786413603062</v>
+        <v>0.09974653999226003</v>
       </c>
       <c r="J32">
-        <v>0.09320786413603062</v>
+        <v>0.09974653999226005</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>142.563596</v>
+        <v>112.871091</v>
       </c>
       <c r="N32">
-        <v>427.690788</v>
+        <v>338.613273</v>
       </c>
       <c r="O32">
-        <v>0.9315318106005318</v>
+        <v>0.9151808153836027</v>
       </c>
       <c r="P32">
-        <v>0.9315318106005319</v>
+        <v>0.9151808153836026</v>
       </c>
       <c r="Q32">
-        <v>1690.698941583754</v>
+        <v>1833.759465081257</v>
       </c>
       <c r="R32">
-        <v>15216.29047425379</v>
+        <v>16503.83518573131</v>
       </c>
       <c r="S32">
-        <v>0.08682609044084498</v>
+        <v>0.09128611980180967</v>
       </c>
       <c r="T32">
-        <v>0.08682609044084498</v>
+        <v>0.09128611980180967</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>11.85926133333333</v>
+        <v>16.24649366666667</v>
       </c>
       <c r="H33">
-        <v>35.57778399999999</v>
+        <v>48.739481</v>
       </c>
       <c r="I33">
-        <v>0.09320786413603062</v>
+        <v>0.09974653999226003</v>
       </c>
       <c r="J33">
-        <v>0.09320786413603062</v>
+        <v>0.09974653999226005</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>1.350685</v>
       </c>
       <c r="O33">
-        <v>0.002941859116219682</v>
+        <v>0.003650539119966515</v>
       </c>
       <c r="P33">
-        <v>0.002941859116219682</v>
+        <v>0.003650539119966515</v>
       </c>
       <c r="Q33">
-        <v>5.339375464671109</v>
+        <v>7.314631766053888</v>
       </c>
       <c r="R33">
-        <v>48.05437918203999</v>
+        <v>65.83168589448499</v>
       </c>
       <c r="S33">
-        <v>0.0002742044048119473</v>
+        <v>0.0003641286463230497</v>
       </c>
       <c r="T33">
-        <v>0.0002742044048119472</v>
+        <v>0.0003641286463230498</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>11.85926133333333</v>
+        <v>16.24649366666667</v>
       </c>
       <c r="H34">
-        <v>35.57778399999999</v>
+        <v>48.739481</v>
       </c>
       <c r="I34">
-        <v>0.09320786413603062</v>
+        <v>0.09974653999226003</v>
       </c>
       <c r="J34">
-        <v>0.09320786413603062</v>
+        <v>0.09974653999226005</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>1.398212333333333</v>
+        <v>2.188423666666667</v>
       </c>
       <c r="N34">
-        <v>4.194637</v>
+        <v>6.565270999999999</v>
       </c>
       <c r="O34">
-        <v>0.009136128037020016</v>
+        <v>0.01774416582599324</v>
       </c>
       <c r="P34">
-        <v>0.009136128037020014</v>
+        <v>0.01774416582599324</v>
       </c>
       <c r="Q34">
-        <v>16.58176546048977</v>
+        <v>35.55421124048344</v>
       </c>
       <c r="R34">
-        <v>149.235889144408</v>
+        <v>319.9879011643509</v>
       </c>
       <c r="S34">
-        <v>0.0008515589808039417</v>
+        <v>0.001769919146191729</v>
       </c>
       <c r="T34">
-        <v>0.0008515589808039416</v>
+        <v>0.001769919146191729</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>11.85926133333333</v>
+        <v>16.24649366666667</v>
       </c>
       <c r="H35">
-        <v>35.57778399999999</v>
+        <v>48.739481</v>
       </c>
       <c r="I35">
-        <v>0.09320786413603062</v>
+        <v>0.09974653999226003</v>
       </c>
       <c r="J35">
-        <v>0.09320786413603062</v>
+        <v>0.09974653999226005</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>2.274860333333333</v>
+        <v>2.759329666666667</v>
       </c>
       <c r="N35">
-        <v>6.824581</v>
+        <v>8.277989000000002</v>
       </c>
       <c r="O35">
-        <v>0.01486427688856368</v>
+        <v>0.02237318299910971</v>
       </c>
       <c r="P35">
-        <v>0.01486427688856368</v>
+        <v>0.02237318299910971</v>
       </c>
       <c r="Q35">
-        <v>26.97816318983377</v>
+        <v>44.82943195374546</v>
       </c>
       <c r="R35">
-        <v>242.803468708504</v>
+        <v>403.4648875837091</v>
       </c>
       <c r="S35">
-        <v>0.001385467500709583</v>
+        <v>0.002231647592774849</v>
       </c>
       <c r="T35">
-        <v>0.001385467500709583</v>
+        <v>0.002231647592774849</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>11.85926133333333</v>
+        <v>16.24649366666667</v>
       </c>
       <c r="H36">
-        <v>35.57778399999999</v>
+        <v>48.739481</v>
       </c>
       <c r="I36">
-        <v>0.09320786413603062</v>
+        <v>0.09974653999226003</v>
       </c>
       <c r="J36">
-        <v>0.09320786413603062</v>
+        <v>0.09974653999226005</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>3.688331</v>
+        <v>3.993455</v>
       </c>
       <c r="N36">
-        <v>11.064993</v>
+        <v>11.980365</v>
       </c>
       <c r="O36">
-        <v>0.02410010515253888</v>
+        <v>0.0323797118528581</v>
       </c>
       <c r="P36">
-        <v>0.02410010515253888</v>
+        <v>0.0323797118528581</v>
       </c>
       <c r="Q36">
-        <v>43.74088121283466</v>
+        <v>64.87964136561833</v>
       </c>
       <c r="R36">
-        <v>393.667930915512</v>
+        <v>583.9167722905649</v>
       </c>
       <c r="S36">
-        <v>0.002246319326721895</v>
+        <v>0.003229764223268966</v>
       </c>
       <c r="T36">
-        <v>0.002246319326721895</v>
+        <v>0.003229764223268967</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>11.85926133333333</v>
+        <v>16.24649366666667</v>
       </c>
       <c r="H37">
-        <v>35.57778399999999</v>
+        <v>48.739481</v>
       </c>
       <c r="I37">
-        <v>0.09320786413603062</v>
+        <v>0.09974653999226003</v>
       </c>
       <c r="J37">
-        <v>0.09320786413603062</v>
+        <v>0.09974653999226005</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>2.666884333333333</v>
+        <v>1.069484</v>
       </c>
       <c r="N37">
-        <v>8.000653</v>
+        <v>3.208452</v>
       </c>
       <c r="O37">
-        <v>0.01742582020512581</v>
+        <v>0.008671584818469745</v>
       </c>
       <c r="P37">
-        <v>0.0174258202051258</v>
+        <v>0.008671584818469745</v>
       </c>
       <c r="Q37">
-        <v>31.62727825477244</v>
+        <v>17.37536503260133</v>
       </c>
       <c r="R37">
-        <v>284.645504292952</v>
+        <v>156.378285293412</v>
       </c>
       <c r="S37">
-        <v>0.001624223482138264</v>
+        <v>0.0008649605818917673</v>
       </c>
       <c r="T37">
-        <v>0.001624223482138263</v>
+        <v>0.0008649605818917674</v>
       </c>
     </row>
   </sheetData>
